--- a/311369318.xlsx
+++ b/311369318.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Unnamed: 0.1</t>
   </si>
   <si>
+    <t>Unnamed: 0.1.1</t>
+  </si>
+  <si>
     <t>Date</t>
   </si>
   <si>
@@ -29,6 +32,9 @@
   </si>
   <si>
     <t>Sat Jan 18 17:16:32 2020</t>
+  </si>
+  <si>
+    <t>Sat Jan 18 19:20:10 2020</t>
   </si>
 </sst>
 </file>
@@ -386,13 +392,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,30 +411,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
         <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
